--- a/csec/database/Food and Nutrition data.xlsx
+++ b/csec/database/Food and Nutrition data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -19,7 +19,31 @@
     <t>id</t>
   </si>
   <si>
-    <t>CSEC Food, Nutrition and Health June 2017 P2.pdf</t>
+    <t>CSEC Food and Nutrition June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1DAUXyeVklyD1GOPhz6EeoES_OIsYVkUV</t>
+  </si>
+  <si>
+    <t>CSEC Food and Nutrition June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>16U5XKzjalgqeOzkIgTbNphQSw_EoBXzx</t>
+  </si>
+  <si>
+    <t>CSEC Food and Nutrition June 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1EeODjD9pfNlDENQ6eNpFKL1hd7GUAa8Z</t>
+  </si>
+  <si>
+    <t>CSEC Food and Nutrition June 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>1D627OXPy-RZaD9qxJnlS-wHSD3d2XBx6</t>
+  </si>
+  <si>
+    <t>CSEC Food and Nutrition June 2017 P2.pdf</t>
   </si>
   <si>
     <t>1SishkmXV69WE2Tl-YbrCrgdCi39MJ9Vo</t>
@@ -477,6 +501,38 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
